--- a/Import/Wealth.xlsx
+++ b/Import/Wealth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21314\Desktop\jshu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JShu\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB95F71-096A-47F8-96FF-CA34E60FC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A67D225-267D-43CC-AF03-D92341788A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开销(50%)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>还钱2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱不算，容易花超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -139,6 +143,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,7 +488,7 @@
         <v>2800</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C6" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
         <v>8400</v>
       </c>
       <c r="D4" s="4"/>
@@ -518,8 +525,13 @@
       <c r="A7" s="3">
         <v>45839</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4">
+        <v>3800</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>21700</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +593,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -632,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C6" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
         <v>0</v>
       </c>
     </row>
@@ -664,8 +676,13 @@
       <c r="A7" s="6">
         <v>45839</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7">
+        <v>300</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -719,13 +736,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E871D6-C0A8-4E29-AA6A-E729AD18974A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +793,7 @@
         <v>4200</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C6" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
         <v>12600</v>
       </c>
       <c r="D4" s="7"/>
@@ -813,9 +830,16 @@
       <c r="A7" s="6">
         <v>45839</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>20100</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
